--- a/AY 25-26 CSE E1 S2.xlsx
+++ b/AY 25-26 CSE E1 S2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ECDAC91-C931-5549-9461-347252483797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3F9AC61A-E8B0-6942-B3B6-683D930855B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
   <si>
     <t>A.Y 25-26_E1_SEM2_COMPUTER SCIENCE AND ENGINEERING TIMETABLE</t>
   </si>
@@ -68,58 +68,61 @@
     <t>Slot-1</t>
   </si>
   <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE </t>
+  </si>
+  <si>
+    <t>Slot-2</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>E</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Slot-3</t>
+  </si>
+  <si>
+    <t>LUNCH BREAK</t>
+  </si>
+  <si>
+    <t>Slot-4</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t xml:space="preserve">CSE </t>
-  </si>
-  <si>
-    <t>Slot-2</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Slot-3</t>
-  </si>
-  <si>
-    <t>LUNCH BREAK</t>
-  </si>
-  <si>
-    <t>Slot-4</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Slot-5</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>Slot-6</t>
@@ -222,7 +225,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">                     Mr. Devaraj(C1(X1,X2), C2(X1,X2)),                                                           </t>
+      <t xml:space="preserve">                     Mr. Devaraj (C1,C2-B1,C3,C4-B2),Mr K V Ramakanth (C1,C2-B2), </t>
     </r>
     <r>
       <rPr>
@@ -232,7 +235,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t>Mr. Chintha Naresh(C3(X1,X2),C4 (X1 ,X2))</t>
+      <t xml:space="preserve">Mr. Chintha Naresh (C3,C4-B1). </t>
     </r>
   </si>
   <si>
@@ -281,9 +284,6 @@
     <t xml:space="preserve"> Data Structures and Algorithms</t>
   </si>
   <si>
-    <t>Dr B Venkat Raman(C1,C2),Laxmi Narayana(C3,C4)</t>
-  </si>
-  <si>
     <t>CS1801</t>
   </si>
   <si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Ms Kavya</t>
+  </si>
+  <si>
+    <t>Dr B Venkat Raman(C1,C2), Mr Laxmi Narayana(C3,C4)</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,26 +579,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32:P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1125,14 +1125,12 @@
       <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>13</v>
@@ -1140,11 +1138,9 @@
       <c r="G4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="H4" s="22"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="23" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="19" t="s">
@@ -1153,47 +1149,43 @@
       <c r="L4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="19"/>
+      <c r="M4" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="N4" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" s="20"/>
-      <c r="P4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="22"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>16</v>
-      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="12"/>
       <c r="J5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>18</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>20</v>
@@ -1205,12 +1197,12 @@
         <v>20</v>
       </c>
       <c r="O5" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="26"/>
@@ -1223,25 +1215,25 @@
       <c r="D6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="19"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="27"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="12"/>
       <c r="J6" s="26"/>
       <c r="K6" s="19" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M6" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O6" s="19" t="s">
         <v>14</v>
@@ -1249,7 +1241,7 @@
       <c r="P6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
@@ -1285,37 +1277,37 @@
       <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="12"/>
       <c r="J8" s="26"/>
       <c r="K8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>16</v>
-      </c>
       <c r="N8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="O8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="28"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
@@ -1326,10 +1318,12 @@
         <v>28</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
@@ -1337,40 +1331,36 @@
       <c r="K9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="11" t="s">
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
       <c r="J10" s="26"/>
       <c r="K10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>16</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -1429,8 +1419,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>30</v>
+      <c r="A12" s="23" t="s">
+        <v>31</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>10</v>
@@ -1442,20 +1432,18 @@
         <v>13</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="G12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="19"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="22" t="s">
-        <v>31</v>
+      <c r="J12" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>10</v>
@@ -1469,52 +1457,48 @@
       <c r="N12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="20" t="s">
-        <v>16</v>
+      <c r="O12" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="29"/>
+      <c r="Q12" s="22"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>12</v>
+      <c r="C13" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="27"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="12"/>
       <c r="J13" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" s="20" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N13" s="19" t="s">
         <v>16</v>
@@ -1523,53 +1507,51 @@
         <v>13</v>
       </c>
       <c r="P13" s="11"/>
-      <c r="Q13" s="27"/>
+      <c r="Q13" s="25"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>11</v>
+      <c r="C14" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="27"/>
+        <v>20</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="12"/>
       <c r="J14" s="26"/>
       <c r="K14" s="19" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N14" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="30" t="s">
+      <c r="P14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="27"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
@@ -1592,12 +1574,12 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>20</v>
@@ -1609,39 +1591,39 @@
         <v>25</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="28"/>
+        <v>26</v>
+      </c>
+      <c r="H16" s="22"/>
       <c r="I16" s="12"/>
       <c r="J16" s="26"/>
       <c r="K16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>17</v>
+      <c r="L16" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="M16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="19" t="s">
-        <v>12</v>
+      <c r="O16" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="28"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="31"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>28</v>
@@ -1654,11 +1636,11 @@
       <c r="K17" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="11"/>
+      <c r="L17" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="M17" s="11"/>
-      <c r="N17" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="N17" s="11"/>
       <c r="O17" s="11" t="s">
         <v>28</v>
       </c>
@@ -1666,11 +1648,10 @@
       <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="11"/>
+        <v>30</v>
+      </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -1679,37 +1660,35 @@
       <c r="I18" s="12"/>
       <c r="J18" s="26"/>
       <c r="K18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="L18" s="19"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="19" t="s">
-        <v>16</v>
-      </c>
+      <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33" t="s">
-        <v>33</v>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="35" t="s">
+      <c r="H24" s="33" t="s">
         <v>36</v>
       </c>
+      <c r="I24" s="34" t="s">
+        <v>37</v>
+      </c>
       <c r="J24" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -1719,27 +1698,27 @@
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>38</v>
+      <c r="B25" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="37">
+      <c r="H25" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="36">
         <v>2</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -1749,23 +1728,23 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>42</v>
+      <c r="B26" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="36">
+      <c r="H26" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="35">
         <v>2</v>
       </c>
       <c r="J26" s="6"/>
@@ -1777,27 +1756,27 @@
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="38" t="s">
+      <c r="A27" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="37" t="s">
+      <c r="C27" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="37">
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="36">
         <v>4</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -1807,27 +1786,27 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>49</v>
+      <c r="A28" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="37">
+      <c r="H28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="36">
         <v>3</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -1837,27 +1816,27 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:17" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>53</v>
+      <c r="A29" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="36">
+      <c r="H29" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="35">
         <v>3</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -1867,27 +1846,27 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="36" t="s">
-        <v>57</v>
+      <c r="B30" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="37">
+      <c r="H30" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="36">
         <v>3</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -1897,27 +1876,27 @@
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="36" t="s">
-        <v>60</v>
+      <c r="B31" s="35" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="36">
+      <c r="H31" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" s="35">
         <v>2</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1927,27 +1906,27 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="36" t="s">
-        <v>63</v>
+      <c r="B32" s="35" t="s">
+        <v>64</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="36">
+      <c r="H32" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="35">
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1957,10 +1936,10 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1970,10 +1949,10 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" s="36">
+      <c r="H33" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="35">
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1987,10 +1966,10 @@
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -2000,10 +1979,10 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="36" t="s">
+      <c r="H34" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="35">
         <v>3</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -2017,7 +1996,7 @@
       <c r="P34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="50">
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="J33:P33"/>
     <mergeCell ref="C34:G34"/>
@@ -2040,32 +2019,33 @@
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="J26:P26"/>
     <mergeCell ref="I11:I18"/>
+    <mergeCell ref="G12:G14"/>
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="K15:Q15"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
-    <mergeCell ref="L16:L18"/>
     <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:N18"/>
     <mergeCell ref="P16:P18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="I3:I10"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="Q4:Q6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:F10"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="M8:M10"/>
     <mergeCell ref="N8:N10"/>
-    <mergeCell ref="O8:O10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/AY 25-26 CSE E1 S2.xlsx
+++ b/AY 25-26 CSE E1 S2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3F9AC61A-E8B0-6942-B3B6-683D930855B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E352C7-9A4A-B34B-9882-00600E1761E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
-  <si>
-    <t>A.Y 25-26_E1_SEM2_COMPUTER SCIENCE AND ENGINEERING TIMETABLE</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
+  <si>
+    <t>A.Y 25-26_E1_SEM2_COMPUTER SCIENCE AND ENGINEERING TIMETABLE(With effect from 29:01:2026)</t>
   </si>
   <si>
     <t>Year</t>
@@ -83,7 +83,7 @@
     <t>C2</t>
   </si>
   <si>
-    <t>F</t>
+    <t>C</t>
   </si>
   <si>
     <t xml:space="preserve">CSE </t>
@@ -92,46 +92,43 @@
     <t>Slot-2</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
+    <t>Slot-3</t>
+  </si>
+  <si>
+    <t>LUNCH BREAK</t>
+  </si>
+  <si>
+    <t>Slot-4</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Slot-5</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Slot-6</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>Slot-3</t>
-  </si>
-  <si>
-    <t>LUNCH BREAK</t>
-  </si>
-  <si>
-    <t>Slot-4</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>Slot-5</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>Slot-6</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
   </si>
   <si>
     <t>CSE</t>
@@ -195,7 +192,7 @@
     <t>3-0-0</t>
   </si>
   <si>
-    <t>Dr. Devaraj (C1, C2 ), Mr. Chintha Naresh(C3,C4)</t>
+    <t>Dr. Devaraju (C1, C2 ), Mr. Chintha Naresh(C3,C4)</t>
   </si>
   <si>
     <t>PH1801</t>
@@ -225,7 +222,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">                     Mr. Devaraj (C1,C2-B1,C3,C4-B2),Mr K V Ramakanth (C1,C2-B2), </t>
+      <t xml:space="preserve">                     Dr. Devaraju (C1,C2-B1,C3,C4-B2),Mr K V Ramakanth (C1,C2-B2), </t>
     </r>
     <r>
       <rPr>
@@ -284,16 +281,16 @@
     <t xml:space="preserve"> Data Structures and Algorithms</t>
   </si>
   <si>
+    <t>Faculty1(C1,C2),Faculty 2(C3,C4)</t>
+  </si>
+  <si>
     <t>CS1801</t>
   </si>
   <si>
     <t xml:space="preserve"> Data Structures and Algorithms Lab</t>
   </si>
   <si>
-    <t>Mr. Laxmi Narayana, Ms.Riharika-C1,C2, C3,C4</t>
-  </si>
-  <si>
-    <t>F,G</t>
+    <t>Ms.Riharika , Mr.M V Jayanth Kumar-C1,C2, C3,C4</t>
   </si>
   <si>
     <t>BS1201</t>
@@ -302,20 +299,17 @@
     <t>Engineering Graphics,EG LAB</t>
   </si>
   <si>
-    <t>3-0-3</t>
-  </si>
-  <si>
-    <t>Ms Kavya</t>
-  </si>
-  <si>
-    <t>Dr B Venkat Raman(C1,C2), Mr Laxmi Narayana(C3,C4)</t>
+    <t>1-0-2</t>
+  </si>
+  <si>
+    <t>Ms Kavya-C1,C2, C3,C4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -358,6 +352,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1C1C1C"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -392,7 +394,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,8 +403,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFD8CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFDBB6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -514,64 +534,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -604,31 +627,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -657,7 +683,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -678,7 +704,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1035,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:P32"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1125,22 +1151,24 @@
       <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="24" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="19" t="s">
@@ -1152,101 +1180,101 @@
       <c r="M4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="20"/>
+      <c r="O4" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="P4" s="19"/>
-      <c r="Q4" s="22"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="11"/>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>21</v>
+      <c r="G5" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="25" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="20" t="s">
-        <v>20</v>
+      <c r="L5" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="P5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="25"/>
+      <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>16</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D6" s="19"/>
       <c r="E6" s="11"/>
       <c r="F6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>11</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="26"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>19</v>
-      </c>
+      <c r="N6" s="28"/>
       <c r="O6" s="19" t="s">
         <v>14</v>
       </c>
       <c r="P6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="25"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1255,9 +1283,9 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="26"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -1267,103 +1295,99 @@
       <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="22"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="26"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="20" t="s">
+      <c r="C9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="F9" s="11"/>
-      <c r="G9" s="19" t="s">
-        <v>19</v>
+      <c r="G9" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="O9" s="11"/>
       <c r="P9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="Q9" s="19"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="19" t="s">
-        <v>30</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="19" t="s">
-        <v>11</v>
-      </c>
+      <c r="G10" s="11"/>
       <c r="H10" s="19"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="26"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="19"/>
     </row>
@@ -1419,31 +1443,31 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>31</v>
+      <c r="A12" s="24" t="s">
+        <v>29</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="20" t="s">
         <v>14</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>11</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="23" t="s">
-        <v>32</v>
+      <c r="J12" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>10</v>
@@ -1455,25 +1479,27 @@
         <v>13</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="P12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q12" s="22"/>
-      <c r="S12" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="19" t="s">
@@ -1482,78 +1508,76 @@
       <c r="E13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="11"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="24" t="s">
-        <v>33</v>
+      <c r="J13" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="C14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="25"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="O14" s="19"/>
+      <c r="P14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P14" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="25"/>
+      <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1562,9 +1586,9 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="26"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -1574,121 +1598,119 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="23"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="20" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="22"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="19" t="s">
+      <c r="E17" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="19"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="26"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="19"/>
       <c r="I18" s="12"/>
-      <c r="J18" s="26"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="19"/>
       <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="J24" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -1698,27 +1720,27 @@
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="38">
+        <v>2</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="I25" s="36">
-        <v>2</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
@@ -1728,23 +1750,23 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="35">
+      <c r="H26" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="37">
         <v>2</v>
       </c>
       <c r="J26" s="6"/>
@@ -1756,27 +1778,27 @@
       <c r="P26" s="6"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="36" t="s">
+      <c r="I27" s="38">
+        <v>4</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="I27" s="36">
-        <v>4</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
@@ -1786,27 +1808,27 @@
       <c r="P27" s="6"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="35" t="s">
+      <c r="A28" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="38">
+        <v>3</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="I28" s="36">
-        <v>3</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -1816,27 +1838,27 @@
       <c r="P28" s="6"/>
     </row>
     <row r="29" spans="1:17" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="37">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="I29" s="35">
-        <v>3</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -1846,27 +1868,27 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="36">
+      <c r="H30" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="38">
         <v>3</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -1876,27 +1898,27 @@
       <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:17" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="35">
+      <c r="H31" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="37">
         <v>2</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1906,27 +1928,27 @@
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="35">
+      <c r="H32" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="37">
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1936,10 +1958,10 @@
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="35" t="s">
+      <c r="A33" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="37" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -1949,10 +1971,10 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="35">
+      <c r="H33" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I33" s="37">
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1966,27 +1988,27 @@
       <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="C34" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I34" s="37">
+        <v>3</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="I34" s="35">
-        <v>3</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1996,7 +2018,7 @@
       <c r="P34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="48">
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="J33:P33"/>
     <mergeCell ref="C34:G34"/>
@@ -2021,21 +2043,19 @@
     <mergeCell ref="I11:I18"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="P12:P13"/>
+    <mergeCell ref="Q12:Q14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="K15:Q15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
     <mergeCell ref="P16:P18"/>
-    <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="O17:O18"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="K7:Q7"/>
     <mergeCell ref="D8:D10"/>
@@ -2043,9 +2063,9 @@
     <mergeCell ref="L8:L10"/>
     <mergeCell ref="M8:M10"/>
     <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O8:O9"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="G9:G10"/>
     <mergeCell ref="P9:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
